--- a/FWUsefulPageObjects/TestCases/AiRobot/Robot Uses a Calculator/Main.rvl.xlsx
+++ b/FWUsefulPageObjects/TestCases/AiRobot/Robot Uses a Calculator/Main.rvl.xlsx
@@ -8,12 +8,13 @@
   <sheets>
     <sheet name="RVL" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="62" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="107" uniqueCount="42">
   <si>
     <t>Flow</t>
   </si>
@@ -109,6 +110,36 @@
   </si>
   <si>
     <t>Do 3+4+5= using the calculator.</t>
+  </si>
+  <si>
+    <t>Do 3+4+5= using the calculator. Press each button using mouse.</t>
+  </si>
+  <si>
+    <t>Do CE, 3+4+5= using the calculator. Press each button using mouse. Then validate the result.</t>
+  </si>
+  <si>
+    <t>Click on 5.</t>
+  </si>
+  <si>
+    <t>SetSelfCheck</t>
+  </si>
+  <si>
+    <t>Click on 3.</t>
+  </si>
+  <si>
+    <t>Click on button 3.</t>
+  </si>
+  <si>
+    <t>Do 3+4+5= using the calculator. Use mouse. Verify final result.</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>This will use keyboard</t>
+  </si>
+  <si>
+    <t>Here we ask to use mouse for the same</t>
   </si>
 </sst>
 </file>
@@ -129,7 +160,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="172">
+  <borders count="175">
     <border>
       <left/>
       <right/>
@@ -308,11 +339,14 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -485,6 +519,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="169" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="170" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="171" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="172" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="173" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="174" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,7 +531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection/>
@@ -502,14 +539,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.546875" customWidth="true"/>
-    <col min="2" max="2" width="8.515625" customWidth="true"/>
-    <col min="3" max="3" width="12.49609375" customWidth="true"/>
-    <col min="4" max="4" width="12.49609375" customWidth="true"/>
-    <col min="5" max="5" width="12.49609375" customWidth="true"/>
-    <col min="6" max="6" width="12.49609375" customWidth="true"/>
-    <col min="7" max="7" width="12.49609375" customWidth="true"/>
-    <col min="8" max="8" width="10.5390625" customWidth="true"/>
+    <col min="1" max="1" width="5.51171875" customWidth="true"/>
+    <col min="2" max="2" width="8.4375" customWidth="true"/>
+    <col min="3" max="3" width="12.4296875" customWidth="true"/>
+    <col min="4" max="4" width="12.4296875" customWidth="true"/>
+    <col min="5" max="5" width="12.4296875" customWidth="true"/>
+    <col min="6" max="6" width="12.4296875" customWidth="true"/>
+    <col min="7" max="7" width="18.61328125" customWidth="true"/>
+    <col min="8" max="8" width="10.515625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -629,7 +666,12 @@
       <c r="A8" s="164"/>
     </row>
     <row r="9">
-      <c r="A9" s="161"/>
+      <c r="A9" s="161" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="33"/>
@@ -679,8 +721,12 @@
       <c r="H12" s="48"/>
     </row>
     <row r="13">
-      <c r="A13" s="49"/>
-      <c r="B13" s="50"/>
+      <c r="A13" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="50" t="s">
+        <v>41</v>
+      </c>
       <c r="C13" s="51"/>
       <c r="D13" s="52"/>
       <c r="E13" s="53"/>
@@ -689,134 +735,170 @@
       <c r="H13" s="56"/>
     </row>
     <row r="14">
-      <c r="A14" s="57"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="64"/>
+      <c r="A14" s="174"/>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="65"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="72"/>
+      <c r="A15" s="174"/>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="73"/>
-      <c r="B16" s="74"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="80"/>
+      <c r="A16" s="57"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="64"/>
     </row>
     <row r="17">
-      <c r="A17" s="81"/>
-      <c r="B17" s="82"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="88"/>
+      <c r="A17" s="65"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="72"/>
     </row>
     <row r="18">
-      <c r="A18" s="89"/>
-      <c r="B18" s="90"/>
-      <c r="C18" s="91"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="94"/>
-      <c r="G18" s="95"/>
-      <c r="H18" s="96"/>
+      <c r="A18" s="73"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="80"/>
     </row>
     <row r="19">
-      <c r="A19" s="97"/>
-      <c r="B19" s="98"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="100"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="104"/>
+      <c r="A19" s="81"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="88"/>
     </row>
     <row r="20">
-      <c r="A20" s="105"/>
-      <c r="B20" s="106"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="108"/>
-      <c r="E20" s="109"/>
-      <c r="F20" s="110"/>
-      <c r="G20" s="111"/>
-      <c r="H20" s="112"/>
+      <c r="A20" s="89"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="96"/>
     </row>
     <row r="21">
-      <c r="A21" s="113"/>
-      <c r="B21" s="114"/>
-      <c r="C21" s="115"/>
-      <c r="D21" s="116"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="120"/>
+      <c r="A21" s="97"/>
+      <c r="B21" s="98"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="104"/>
     </row>
     <row r="22">
-      <c r="A22" s="121"/>
-      <c r="B22" s="122"/>
-      <c r="C22" s="123"/>
-      <c r="D22" s="124"/>
-      <c r="E22" s="125"/>
-      <c r="F22" s="126"/>
-      <c r="G22" s="127"/>
-      <c r="H22" s="128"/>
+      <c r="A22" s="105"/>
+      <c r="B22" s="106"/>
+      <c r="C22" s="107"/>
+      <c r="D22" s="108"/>
+      <c r="E22" s="109"/>
+      <c r="F22" s="110"/>
+      <c r="G22" s="111"/>
+      <c r="H22" s="112"/>
     </row>
     <row r="23">
-      <c r="A23" s="129"/>
-      <c r="B23" s="130"/>
-      <c r="C23" s="131"/>
-      <c r="D23" s="132"/>
-      <c r="E23" s="133"/>
-      <c r="F23" s="134"/>
-      <c r="G23" s="135"/>
-      <c r="H23" s="136"/>
+      <c r="A23" s="113"/>
+      <c r="B23" s="114"/>
+      <c r="C23" s="115"/>
+      <c r="D23" s="116"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="118"/>
+      <c r="G23" s="119"/>
+      <c r="H23" s="120"/>
     </row>
     <row r="24">
-      <c r="A24" s="137"/>
-      <c r="B24" s="138"/>
-      <c r="C24" s="139"/>
-      <c r="D24" s="140"/>
-      <c r="E24" s="141"/>
-      <c r="F24" s="142"/>
-      <c r="G24" s="143"/>
-      <c r="H24" s="144"/>
+      <c r="A24" s="121"/>
+      <c r="B24" s="122"/>
+      <c r="C24" s="123"/>
+      <c r="D24" s="124"/>
+      <c r="E24" s="125"/>
+      <c r="F24" s="126"/>
+      <c r="G24" s="127"/>
+      <c r="H24" s="128"/>
     </row>
     <row r="25">
-      <c r="A25" s="145"/>
-      <c r="B25" s="146"/>
-      <c r="C25" s="147"/>
-      <c r="D25" s="148"/>
-      <c r="E25" s="149"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="151"/>
-      <c r="H25" s="152"/>
+      <c r="A25" s="129"/>
+      <c r="B25" s="130"/>
+      <c r="C25" s="131"/>
+      <c r="D25" s="132"/>
+      <c r="E25" s="133"/>
+      <c r="F25" s="134"/>
+      <c r="G25" s="135"/>
+      <c r="H25" s="136"/>
     </row>
     <row r="26">
-      <c r="A26" s="153"/>
-      <c r="B26" s="154"/>
-      <c r="C26" s="155"/>
-      <c r="D26" s="156"/>
-      <c r="E26" s="157"/>
-      <c r="F26" s="158"/>
-      <c r="G26" s="159"/>
-      <c r="H26" s="160"/>
+      <c r="A26" s="137"/>
+      <c r="B26" s="138"/>
+      <c r="C26" s="139"/>
+      <c r="D26" s="140"/>
+      <c r="E26" s="141"/>
+      <c r="F26" s="142"/>
+      <c r="G26" s="143"/>
+      <c r="H26" s="144"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="145"/>
+      <c r="B27" s="146"/>
+      <c r="C27" s="147"/>
+      <c r="D27" s="148"/>
+      <c r="E27" s="149"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="151"/>
+      <c r="H27" s="152"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="153"/>
+      <c r="B28" s="154"/>
+      <c r="C28" s="155"/>
+      <c r="D28" s="156"/>
+      <c r="E28" s="157"/>
+      <c r="F28" s="158"/>
+      <c r="G28" s="159"/>
+      <c r="H28" s="160"/>
     </row>
   </sheetData>
   <tableParts/>
